--- a/testcase/XXD/TIANDUN/UserCenter/UserCenter.xlsx
+++ b/testcase/XXD/TIANDUN/UserCenter/UserCenter.xlsx
@@ -125,9 +125,6 @@
     <t>pageSize中文</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/capitalAccount/userInfo4openAccount?userId=${userId}</t>
-  </si>
-  <si>
     <t>userId</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>pageIndex</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/queryRealNameOpenAccountList4eLoad?employeeId=${employeeId}&amp;mobileOrRealName=${mobileOrRealName}&amp;pageIndex=${pageIndex}&amp;pageSize=${pageSize}</t>
-  </si>
-  <si>
     <t>employeeId传空</t>
   </si>
   <si>
@@ -224,12 +218,6 @@
     <t>pageSize=-1</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/queryUserStatus4eLoad?userId=${userId}</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/userInfoNotOpAcnt4eLoad?employeeId=${employeeId}</t>
-  </si>
-  <si>
     <t>employeeId特殊字符</t>
   </si>
   <si>
@@ -239,9 +227,6 @@
     <t>userId无效</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/appro/checkMobileIsUnique?phone=${phone}</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -260,21 +245,12 @@
     <t>token 解析异常</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/appro/queryMobileApproInfoByToken</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/appro/queryMobileApproInfoByUserId?userId=${userId}</t>
-  </si>
-  <si>
     <t>手机未认证</t>
   </si>
   <si>
     <t>手机已认证</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/queryPayLockedUsers?userName=${userName}&amp;mobile=${mobile}&amp;email=${email}&amp;pageIndex=${pageIndex}&amp;pageSize=${pageSize}</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -308,9 +284,6 @@
     <t>sadasd</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/kaptchaCode/checkKaptcha?kaptchaCode=${kaptchaCode}</t>
-  </si>
-  <si>
     <t>kaptchaCode</t>
   </si>
   <si>
@@ -335,72 +308,27 @@
     <t>KXQOjUH9ez+NMHJGBMl11VIorUFFff6quy8M4ToecSXMHVe8y2xw6ccP7VKXR3/rNhfTJiedyRIqP7Qf3NiZP/eIcfvXlkgNJTs5Hvl/OoA=</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/appro/realname</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/appro/realnameStatus</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/sign/getFuiouAppSignCardUrl?mobile=${mobile}</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/sign/getSignedInfo</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/sign/getSignedInfoInSideUse?userId=${userId}</t>
-  </si>
-  <si>
     <t>用户未在富友注册</t>
   </si>
   <si>
     <t>用户不存在</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/token/createToken?userId=${userId}</t>
-  </si>
-  <si>
     <t>100500</t>
   </si>
   <si>
     <t>200000</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/token/getUserInfoByToken</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/userDetail/${userId}</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/batch/userDetailInfo?userIds=${userIds}</t>
-  </si>
-  <si>
     <t>userIds</t>
   </si>
   <si>
     <t>["101","501","2710"]</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/batch/fundSyschronization?taskId=${taskId}</t>
-  </si>
-  <si>
     <t>taskId</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/bank/userBandedBank?userId=${userId}</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/bank/userBandedBankOutSideUse</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/bank/userCheckingBankCardInfo</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/beInLogging</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/checkUsernameIsUnique?username=${username}</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -416,9 +344,6 @@
     <t>可注册</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/getUsersByStatus?status=${status}&amp;pageIndex=${pageIndex}&amp;pageSize=${pageSize}</t>
-  </si>
-  <si>
     <t>status传空</t>
   </si>
   <si>
@@ -434,25 +359,100 @@
     <t>status中文</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/userAccountInfo</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/userDetailInfo?userId=${userId}</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/userEntrustWithdraw?loginId=${loginId}</t>
-  </si>
-  <si>
     <t>loginId</t>
   </si>
   <si>
-    <t>http://stage.xxd.com/userCenter/user/userInfo?userId=${userId}</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/userInfoByLoginId?loginId=${loginId}</t>
-  </si>
-  <si>
-    <t>http://stage.xxd.com/userCenter/user/userInfoByToken</t>
+    <t>http://${environment}.xxd.com/userCenter/user/capitalAccount/userInfo4openAccount?userId=${userId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/queryRealNameOpenAccountList4eLoad?employeeId=${employeeId}&amp;mobileOrRealName=${mobileOrRealName}&amp;pageIndex=${pageIndex}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/queryUserStatus4eLoad?userId=${userId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/userInfoNotOpAcnt4eLoad?employeeId=${employeeId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/appro/checkMobileIsUnique?phone=${phone}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/appro/queryMobileApproInfoByToken</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/appro/queryMobileApproInfoByUserId?userId=${userId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/queryPayLockedUsers?userName=${userName}&amp;mobile=${mobile}&amp;email=${email}&amp;pageIndex=${pageIndex}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/kaptchaCode/checkKaptcha?kaptchaCode=${kaptchaCode}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/appro/realname</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/appro/realnameStatus</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/sign/getFuiouAppSignCardUrl?mobile=${mobile}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/sign/getSignedInfo</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/sign/getSignedInfoInSideUse?userId=${userId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/token/createToken?userId=${userId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/token/getUserInfoByToken</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/userDetail/${userId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/batch/userDetailInfo?userIds=${userIds}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/batch/fundSyschronization?taskId=${taskId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/bank/userBandedBank?userId=${userId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/bank/userBandedBankOutSideUse</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/bank/userCheckingBankCardInfo</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/beInLogging</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/checkUsernameIsUnique?username=${username}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/getUsersByStatus?status=${status}&amp;pageIndex=${pageIndex}&amp;pageSize=${pageSize}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/userAccountInfo</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/userDetailInfo?userId=${userId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/userEntrustWithdraw?loginId=${loginId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/userInfo?userId=${userId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/userInfoByLoginId?loginId=${loginId}</t>
+  </si>
+  <si>
+    <t>http://${environment}.xxd.com/userCenter/user/userInfoByToken</t>
   </si>
 </sst>
 </file>
@@ -930,27 +930,27 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -963,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -992,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -1007,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -1087,30 +1087,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -1180,30 +1180,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -1273,30 +1273,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1308,7 +1308,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="3">
         <v>18852981776</v>
@@ -1334,7 +1334,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stage.xxd.com/userCenter/user/sign/getFuiouAppSignCardUrl?mobile=${mobile}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1372,30 +1372,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -1465,24 +1465,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1495,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -1539,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -1583,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17">
         <v>155</v>
@@ -1597,7 +1597,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
@@ -1646,24 +1646,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1676,7 +1676,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -1693,7 +1693,7 @@
         <v>115397</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1701,13 +1701,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1715,13 +1715,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1735,7 +1735,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1749,7 +1749,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8"/>
@@ -1759,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -1810,30 +1810,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -1856,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -1903,24 +1903,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -1933,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1958,13 +1958,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1972,13 +1972,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1992,7 +1992,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2006,7 +2006,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8"/>
@@ -2016,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -2029,7 +2029,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stage.xxd.com/userCenter/userDetail/${userId}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2067,24 +2067,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -2097,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -2114,7 +2114,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -2126,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -2185,7 +2185,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17">
         <v>155</v>
@@ -2199,7 +2199,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
@@ -2210,7 +2210,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stage.xxd.com/userCenter/user/batch/userDetailInfo?userIds=${userIds}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2248,24 +2248,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -2278,7 +2278,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -2307,7 +2307,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -2322,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -2366,7 +2366,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C9" s="17">
         <v>155</v>
@@ -2380,7 +2380,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
@@ -2429,28 +2429,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -2464,13 +2464,13 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>6</v>
@@ -2511,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="4">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -2559,7 +2559,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>12</v>
@@ -2584,7 +2584,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>17</v>
@@ -2608,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="15">
         <v>140900008</v>
@@ -2630,7 +2630,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="15">
         <v>140900008</v>
@@ -2654,7 +2654,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="15">
         <v>140900008</v>
@@ -2678,7 +2678,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="15">
         <v>140900008</v>
@@ -2702,7 +2702,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="15">
         <v>140900008</v>
@@ -2724,7 +2724,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="15">
         <v>140900008</v>
@@ -2748,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="15">
         <v>140900008</v>
@@ -2772,7 +2772,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="15">
         <v>140900008</v>
@@ -2796,7 +2796,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="15">
         <v>140900008</v>
@@ -2820,7 +2820,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="15">
         <v>140900008</v>
@@ -2844,7 +2844,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="15">
         <v>140900008</v>
@@ -2890,7 +2890,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="15">
         <v>140900008</v>
@@ -2902,7 +2902,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" s="4">
         <v>200000</v>
@@ -2914,7 +2914,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="15">
         <v>140900008</v>
@@ -2938,7 +2938,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="15">
         <v>140900008</v>
@@ -2962,7 +2962,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="15">
         <v>140900008</v>
@@ -2986,7 +2986,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>21</v>
@@ -3009,7 +3009,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="15">
         <v>140900008</v>
@@ -3032,7 +3032,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="15">
         <v>140900008</v>
@@ -3114,24 +3114,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -3144,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -3169,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -3183,7 +3183,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -3227,7 +3227,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -3240,7 +3240,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stage.xxd.com/userCenter/user/bank/userBandedBank?userId=${userId}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3279,30 +3279,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3325,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -3372,30 +3372,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -3466,30 +3466,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -3559,24 +3559,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -3589,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -3600,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3">
         <v>13387655678</v>
@@ -3614,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -3628,7 +3628,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -3672,7 +3672,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C9" s="17">
         <v>18852981776</v>
@@ -3723,26 +3723,26 @@
         <v>4</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -3759,7 +3759,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>6</v>
@@ -3797,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="19">
@@ -3817,7 +3817,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -3839,7 +3839,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>12</v>
@@ -3861,7 +3861,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>17</v>
@@ -3882,7 +3882,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="15">
         <v>1</v>
@@ -3901,7 +3901,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="15">
         <v>1</v>
@@ -3922,7 +3922,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="15">
         <v>1</v>
@@ -3943,7 +3943,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="15">
         <v>1</v>
@@ -3964,7 +3964,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="15">
         <v>1</v>
@@ -3985,7 +3985,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="15">
         <v>1</v>
@@ -4006,7 +4006,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="15">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C17" s="15">
         <v>1</v>
@@ -4055,7 +4055,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4">
         <v>200000</v>
@@ -4067,7 +4067,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" s="15">
         <v>1</v>
@@ -4088,7 +4088,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
@@ -4109,7 +4109,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="15">
         <v>1</v>
@@ -4130,7 +4130,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>21</v>
@@ -4151,7 +4151,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="15">
         <v>1</v>
@@ -4228,30 +4228,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -4321,24 +4321,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -4351,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -4376,7 +4376,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -4390,7 +4390,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -4434,7 +4434,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -4447,7 +4447,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://stage.xxd.com/userCenter/user/userDetailInfo?userId=${userId}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4485,24 +4485,24 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -4515,7 +4515,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -4540,7 +4540,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -4554,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -4598,7 +4598,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -4660,13 +4660,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -4679,7 +4679,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -4704,7 +4704,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -4718,7 +4718,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -4762,7 +4762,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -4813,27 +4813,27 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -4846,7 +4846,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -4875,7 +4875,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -4890,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -4969,7 +4969,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -4980,13 +4980,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -4999,7 +4999,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -5024,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -5038,7 +5038,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -5082,7 +5082,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
@@ -5106,7 +5106,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5133,10 +5133,10 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
@@ -5147,16 +5147,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -5179,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -5226,27 +5226,27 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -5259,7 +5259,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -5288,7 +5288,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>19</v>
@@ -5303,7 +5303,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -5383,27 +5383,27 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -5416,7 +5416,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -5430,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="15">
         <v>13524690241</v>
@@ -5445,7 +5445,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="15">
         <v>13524691241</v>
@@ -5460,7 +5460,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
@@ -5475,7 +5475,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>15</v>
@@ -5554,30 +5554,30 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H2" s="3"/>
     </row>
@@ -5600,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C4" s="4">
         <v>200303</v>
@@ -5647,27 +5647,27 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -5680,7 +5680,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C4" s="15">
         <v>155</v>
@@ -5709,7 +5709,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C5" s="15">
         <v>114422</v>
@@ -5724,7 +5724,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
@@ -5739,7 +5739,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>15</v>
@@ -5818,28 +5818,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -5853,16 +5853,16 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>6</v>
@@ -5882,13 +5882,13 @@
         <v>14</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D4" s="4">
         <v>13415674885</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F4" s="19">
         <v>1</v>
@@ -5906,14 +5906,14 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="4">
         <v>13415674885</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F5" s="19">
         <v>1</v>
@@ -5932,7 +5932,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>15</v>
@@ -5941,7 +5941,7 @@
         <v>13415674885</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F6" s="19">
         <v>1</v>
@@ -5960,7 +5960,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>12</v>
@@ -5969,7 +5969,7 @@
         <v>13415674885</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F7" s="19">
         <v>1</v>
@@ -5988,7 +5988,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>17</v>
@@ -5997,7 +5997,7 @@
         <v>13415674885</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F8" s="19">
         <v>1</v>
@@ -6015,14 +6015,14 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F9" s="19">
         <v>1</v>
@@ -6040,16 +6040,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F10" s="19">
         <v>1</v>
@@ -6067,16 +6067,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F11" s="19">
         <v>1</v>
@@ -6094,16 +6094,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F12" s="19">
         <v>1</v>
@@ -6121,16 +6121,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4">
         <v>13415674885</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="19">
@@ -6146,16 +6146,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4">
         <v>13415674885</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>17</v>
@@ -6173,16 +6173,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4">
         <v>13415674885</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>18</v>
@@ -6200,16 +6200,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D16" s="4">
         <v>13415674885</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>12</v>
@@ -6227,16 +6227,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D17" s="4">
         <v>13415674885</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F17" s="15">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D18" s="4">
         <v>13415674885</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F18" s="15">
         <v>-1</v>
@@ -6281,16 +6281,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4">
         <v>13415674885</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F19" s="15">
         <v>1</v>
@@ -6309,13 +6309,13 @@
         <v>13</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4">
         <v>13415674885</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F20" s="15">
         <v>1</v>
@@ -6333,22 +6333,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D21" s="4">
         <v>13415674885</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F21" s="15">
         <v>1</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="4">
         <v>200000</v>
@@ -6360,16 +6360,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D22" s="4">
         <v>13415674885</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F22" s="15">
         <v>1</v>
@@ -6387,16 +6387,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D23" s="4">
         <v>13415674885</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F23" s="15">
         <v>1</v>
@@ -6414,16 +6414,16 @@
         <v>21</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D24" s="4">
         <v>13415674885</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F24" s="15">
         <v>1</v>
@@ -6441,7 +6441,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>21</v>
@@ -6450,7 +6450,7 @@
         <v>13415674885</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F25" s="19">
         <v>1</v>
@@ -6467,16 +6467,16 @@
         <v>23</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D26" s="19" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F26" s="19">
         <v>1</v>
@@ -6493,16 +6493,16 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4">
         <v>13415674885</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>21</v>
@@ -6522,13 +6522,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4">
         <v>13415674885</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F28" s="19">
         <v>1</v>
@@ -6545,10 +6545,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D29" s="4">
         <v>13415674885</v>
@@ -6568,10 +6568,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4">
         <v>13415674885</v>
@@ -6594,16 +6594,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D31" s="4">
         <v>13415674885</v>
       </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F31" s="19">
         <v>1</v>
@@ -6620,10 +6620,10 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D32" s="4">
         <v>13415674885</v>
@@ -6646,10 +6646,10 @@
         <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D33" s="4">
         <v>13415674885</v>
@@ -6707,27 +6707,27 @@
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3"/>
       <c r="H2" s="3"/>
@@ -6740,7 +6740,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>8</v>
@@ -6754,10 +6754,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D4" s="4">
         <v>200000</v>
@@ -6769,10 +6769,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4">
         <v>200000</v>
@@ -6784,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>19</v>
@@ -6799,7 +6799,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>15</v>
